--- a/Hotelbookingform-ManualTests.xlsx
+++ b/Hotelbookingform-ManualTests.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satsabap/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/satishmac/Documents/test_project/ex-hotelbooking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BE10197-1BCB-1B46-B799-3F7143C8F4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2451E3-9CDA-B64B-BEF8-4142D6C3796D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34080" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="81">
   <si>
     <t>Title</t>
   </si>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>5. Performance testing</t>
+  </si>
+  <si>
+    <t>Verify Page title, headings and layout</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -433,6 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -445,7 +449,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -787,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -834,39 +840,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="4">
-        <v>100</v>
-      </c>
-      <c r="F3" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>75</v>
@@ -881,19 +876,19 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+    <row r="5" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>75</v>
@@ -907,20 +902,20 @@
       <c r="F5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>21</v>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="9" t="s">
-        <v>59</v>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="21"/>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>75</v>
@@ -934,20 +929,20 @@
       <c r="F6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>23</v>
+      <c r="G6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+    <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="21"/>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>75</v>
@@ -959,22 +954,22 @@
         <v>100</v>
       </c>
       <c r="F7" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="21"/>
       <c r="B8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>75</v>
@@ -998,13 +993,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="21"/>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>74</v>
@@ -1025,16 +1020,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="21"/>
       <c r="B10" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4">
         <v>100</v>
@@ -1053,21 +1048,21 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>75</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>100</v>
       </c>
       <c r="F11" s="4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>14</v>
@@ -1080,9 +1075,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>75</v>
@@ -1090,8 +1085,8 @@
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
+      <c r="E12" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="4" t="b">
         <v>1</v>
@@ -1106,51 +1101,51 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+      <c r="B13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="4">
-        <v>100</v>
-      </c>
-      <c r="F14" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>39</v>
-      </c>
+      <c r="C15" s="13"/>
       <c r="D15" s="4" t="s">
         <v>74</v>
       </c>
@@ -1170,47 +1165,49 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="21"/>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="4">
+        <v>100</v>
+      </c>
+      <c r="F16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="4">
-        <v>100</v>
-      </c>
-      <c r="F17" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>75</v>
@@ -1232,49 +1229,47 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="4">
+        <v>100</v>
+      </c>
+      <c r="F19" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>75</v>
@@ -1282,7 +1277,9 @@
       <c r="D21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
       <c r="F21" s="4" t="b">
         <v>1</v>
       </c>
@@ -1296,10 +1293,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="21"/>
       <c r="B22" s="9" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>75</v>
@@ -1307,9 +1304,7 @@
       <c r="D22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="13">
-        <v>-100</v>
-      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="4" t="b">
         <v>1</v>
       </c>
@@ -1324,9 +1319,9 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>75</v>
@@ -1334,8 +1329,8 @@
       <c r="D23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>44</v>
+      <c r="E23" s="13">
+        <v>-100</v>
       </c>
       <c r="F23" s="4" t="b">
         <v>1</v>
@@ -1350,10 +1345,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="4" t="s">
-        <v>38</v>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="21"/>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>75</v>
@@ -1361,7 +1356,9 @@
       <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="F24" s="4" t="b">
         <v>1</v>
       </c>
@@ -1375,49 +1372,47 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="13"/>
+      <c r="F25" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="4">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>75</v>
@@ -1431,7 +1426,9 @@
       <c r="F27" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
@@ -1439,10 +1436,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
       <c r="B28" s="9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>75</v>
@@ -1456,9 +1453,7 @@
       <c r="F28" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="G28" s="15"/>
       <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
@@ -1467,9 +1462,9 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>75</v>
@@ -1483,8 +1478,8 @@
       <c r="F29" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>52</v>
+      <c r="G29" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>15</v>
@@ -1493,10 +1488,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="4" t="s">
-        <v>38</v>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="20"/>
+      <c r="B30" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>75</v>
@@ -1510,7 +1505,9 @@
       <c r="F30" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="H30" s="5" t="s">
         <v>15</v>
       </c>
@@ -1518,49 +1515,47 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="4">
+        <v>100</v>
+      </c>
+      <c r="F31" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="4">
-        <v>100</v>
-      </c>
-      <c r="F32" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>75</v>
@@ -1577,15 +1572,17 @@
       <c r="G33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="I33" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="22"/>
       <c r="B34" s="9" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>75</v>
@@ -1602,17 +1599,15 @@
       <c r="G34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="H34" s="15"/>
       <c r="I34" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>75</v>
@@ -1629,17 +1624,17 @@
       <c r="G35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="16" t="s">
-        <v>52</v>
+      <c r="H35" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="4" t="s">
-        <v>38</v>
+      <c r="A36" s="22"/>
+      <c r="B36" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>75</v>
@@ -1656,88 +1651,115 @@
       <c r="G36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="I36" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="22"/>
+      <c r="B37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="4">
+        <v>100</v>
+      </c>
+      <c r="F37" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I39" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="18" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1802,7 +1824,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1835,7 +1857,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +1888,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="4" t="s">
         <v>60</v>
       </c>
@@ -1899,7 +1921,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="9" t="s">
         <v>59</v>
       </c>
@@ -1930,7 +1952,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="9" t="s">
         <v>24</v>
       </c>
@@ -1961,7 +1983,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="9" t="s">
         <v>25</v>
       </c>
@@ -1992,7 +2014,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="9" t="s">
         <v>29</v>
       </c>
@@ -2023,7 +2045,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="9" t="s">
         <v>30</v>
       </c>
@@ -2054,7 +2076,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="9" t="s">
         <v>34</v>
       </c>
@@ -2085,7 +2107,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
@@ -2121,7 +2143,7 @@
       <c r="A13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2152,7 +2174,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -2185,7 +2207,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2216,7 +2238,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
@@ -2247,7 +2269,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -2282,7 +2304,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="9" t="s">
         <v>28</v>
       </c>
@@ -2311,7 +2333,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="9" t="s">
         <v>42</v>
       </c>
@@ -2344,7 +2366,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="9" t="s">
         <v>43</v>
       </c>
@@ -2375,7 +2397,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="4" t="s">
         <v>38</v>
       </c>
@@ -2406,7 +2428,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -2441,7 +2463,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +2492,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="19"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="9" t="s">
         <v>49</v>
       </c>
@@ -2503,7 +2525,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="9" t="s">
         <v>51</v>
       </c>
@@ -2534,7 +2556,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="4" t="s">
         <v>38</v>
       </c>
@@ -2565,7 +2587,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="22" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -2600,7 +2622,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="9" t="s">
         <v>28</v>
       </c>
@@ -2629,7 +2651,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="9" t="s">
         <v>49</v>
       </c>
@@ -2662,7 +2684,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="9" t="s">
         <v>51</v>
       </c>
@@ -2693,7 +2715,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="4" t="s">
         <v>38</v>
       </c>
